--- a/data/trans_dic/P15D$ingresado-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15D$ingresado-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 37,48</t>
+          <t>6,47; 36,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 16,66</t>
+          <t>2,96; 15,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,59</t>
+          <t>0,0; 16,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,37 +750,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,3</t>
+          <t>0,0; 21,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,49</t>
+          <t>0,0; 25,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,0</t>
+          <t>0,0; 59,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 29,32</t>
+          <t>4,68; 29,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 13,84</t>
+          <t>3,1; 14,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 13,43</t>
+          <t>1,53; 14,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,55</t>
+          <t>0,0; 35,67</t>
         </is>
       </c>
     </row>
@@ -864,22 +865,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 28,36</t>
+          <t>2,87; 28,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 11,65</t>
+          <t>1,22; 11,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 18,66</t>
+          <t>2,12; 17,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,74</t>
+          <t>0,0; 53,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,12 +890,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,65</t>
+          <t>0,0; 16,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,81</t>
+          <t>0,0; 28,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +905,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 20,08</t>
+          <t>1,84; 20,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 10,79</t>
+          <t>2,27; 10,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 15,57</t>
+          <t>2,91; 17,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,09</t>
+          <t>0,0; 32,54</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,54</t>
+          <t>0,0; 29,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 24,26</t>
+          <t>3,68; 23,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 31,17</t>
+          <t>2,91; 28,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 33,56</t>
+          <t>7,04; 34,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,65</t>
+          <t>0,0; 31,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,73</t>
+          <t>0,0; 21,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 43,22</t>
+          <t>5,95; 41,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 19,36</t>
+          <t>2,43; 21,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,58</t>
+          <t>0,0; 21,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 18,91</t>
+          <t>4,01; 18,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 27,39</t>
+          <t>5,17; 28,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 23,37</t>
+          <t>6,63; 23,73</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1145,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 39,94</t>
+          <t>4,92; 40,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 30,28</t>
+          <t>3,86; 28,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,35</t>
+          <t>3,28; 25,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 27,56</t>
+          <t>7,12; 27,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1170,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,85</t>
+          <t>0,0; 20,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 32,47</t>
+          <t>3,89; 31,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 16,49</t>
+          <t>2,11; 17,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 27,54</t>
+          <t>3,35; 29,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 20,53</t>
+          <t>4,08; 20,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 23,36</t>
+          <t>3,84; 22,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 20,56</t>
+          <t>6,16; 20,06</t>
         </is>
       </c>
     </row>
@@ -1284,27 +1285,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,49</t>
+          <t>0,0; 56,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,76</t>
+          <t>0,0; 41,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,73</t>
+          <t>0,0; 46,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,62; 39,48</t>
+          <t>9,56; 38,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,91</t>
+          <t>0,0; 41,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1314,32 +1315,32 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 30,03</t>
+          <t>3,38; 31,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 23,08</t>
+          <t>6,5; 23,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 37,01</t>
+          <t>4,46; 38,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,6</t>
+          <t>0,0; 8,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 28,35</t>
+          <t>5,01; 25,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,59; 26,93</t>
+          <t>10,92; 27,64</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1430,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,7</t>
+          <t>0,0; 26,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,82; 67,51</t>
+          <t>9,04; 69,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,53; 41,73</t>
+          <t>5,46; 44,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,26</t>
+          <t>0,0; 43,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,48</t>
+          <t>0,0; 27,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,37</t>
+          <t>0,0; 19,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,99; 25,6</t>
+          <t>7,77; 25,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,19</t>
+          <t>0,0; 22,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 18,84</t>
+          <t>2,28; 20,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 26,43</t>
+          <t>3,89; 26,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,41; 26,43</t>
+          <t>10,03; 26,67</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,98</t>
+          <t>0,0; 58,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,28</t>
+          <t>0,0; 29,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,48; 45,28</t>
+          <t>5,48; 45,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,67; 40,26</t>
+          <t>11,77; 39,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,61</t>
+          <t>0,0; 30,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,31; 30,9</t>
+          <t>10,25; 34,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 27,04</t>
+          <t>3,07; 27,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,45; 21,55</t>
+          <t>7,32; 20,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 28,77</t>
+          <t>2,86; 28,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,6; 25,95</t>
+          <t>8,76; 25,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,56; 27,13</t>
+          <t>6,99; 27,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,15; 23,65</t>
+          <t>10,5; 24,49</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,97; 22,21</t>
+          <t>8,29; 21,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,44; 12,41</t>
+          <t>5,39; 12,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,93; 16,25</t>
+          <t>7,22; 16,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,44; 22,06</t>
+          <t>11,21; 22,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,01; 11,32</t>
+          <t>1,26; 10,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,03</t>
+          <t>4,93; 11,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,92; 16,91</t>
+          <t>6,6; 16,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,02; 16,13</t>
+          <t>7,93; 16,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,56; 15,27</t>
+          <t>6,36; 15,32</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5,99; 10,77</t>
+          <t>5,87; 10,68</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,15; 14,55</t>
+          <t>7,95; 14,74</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,63; 17,25</t>
+          <t>10,86; 17,97</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, el ingreso en hospital o clínica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6193</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4501</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2163</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6193</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6664</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3047</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2181; 12196</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1766; 9332</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7051</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3971</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1661</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6515</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4730</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11892</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2075; 12863</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2803; 13501</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>951; 8783</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13933</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3907</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4090</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3442</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2112</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3907</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6042</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6203</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3442</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1003; 10019</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1008; 9406</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1077; 9007</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14706</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6377</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6417</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1772</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>983; 10787</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2728; 12868</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2141; 12680</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13745</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5388</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6525</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2084</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2146</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7472</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8855</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8672</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4385</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1964; 12737</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1044; 10278</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2604; 12659</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4229</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6318</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1491; 10388</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>681; 6003</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6141</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3322; 15163</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3147; 17158</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4313; 15433</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3225</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4953</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3030</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7547</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2065</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3107</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3225</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6137</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9495</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>961; 8001</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1396; 10416</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>945; 7402</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3608; 13869</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1811</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7261</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>951; 7710</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>621; 5222</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>978; 8637</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2902; 14268</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2049; 12200</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4933; 16066</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1132</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2191</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6563</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4139</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4943</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2958</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1132</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6330</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>11505</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5286</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5322</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6535</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2766; 11255</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4126</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2045</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1025; 9459</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2299; 8346</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>859; 7459</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4540</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2223; 11482</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7025; 17778</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3433</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3198</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4854</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3071</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1423</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4582</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>988; 7545</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>889; 7177</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3973</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6916</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5777</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2561; 8351</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3142</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>971; 8828</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1567; 10561</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>4939; 13131</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3335</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>4799</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2328</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>10026</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>4940</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>6890</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>12157</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>8275</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>11689</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3490</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6435</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>833; 6841</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2441; 8228</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6851</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>5555; 18544</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1231; 11133</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3875; 11007</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>817; 8036</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6675; 19709</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3865; 15344</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>7739; 18045</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>17115</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>23248</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>22365</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>32074</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>5060</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>20308</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>21020</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>24002</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>22175</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>43556</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>43385</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>56076</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>10199; 26830</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>15289; 34716</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>14421; 32040</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>22434; 44043</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1180; 10186</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>12527; 30078</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>12554; 31425</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>16941; 36007</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>13786; 33224</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>31596; 57467</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>30994; 57455</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>44915; 74353</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>